--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H2">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I2">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J2">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.891565</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N2">
-        <v>8.674695</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q2">
-        <v>1.163148406785</v>
+        <v>1.312881669897778</v>
       </c>
       <c r="R2">
-        <v>10.468335661065</v>
+        <v>11.81593502908</v>
       </c>
       <c r="S2">
-        <v>0.0005420250841281955</v>
+        <v>0.0005062686829593061</v>
       </c>
       <c r="T2">
-        <v>0.0005420250841281955</v>
+        <v>0.0005062686829593061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H3">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I3">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J3">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9708367737425379</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P3">
-        <v>0.970836773742538</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q3">
-        <v>44.01802357194923</v>
+        <v>54.93134860365677</v>
       </c>
       <c r="R3">
-        <v>396.1622121475431</v>
+        <v>494.382137432911</v>
       </c>
       <c r="S3">
-        <v>0.02051232051780029</v>
+        <v>0.02118242804998348</v>
       </c>
       <c r="T3">
-        <v>0.02051232051780029</v>
+        <v>0.02118242804998348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H4">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I4">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J4">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3291073333333334</v>
+        <v>0.110226</v>
       </c>
       <c r="N4">
-        <v>0.987322</v>
+        <v>0.330678</v>
       </c>
       <c r="O4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q4">
-        <v>0.1323852897748889</v>
+        <v>0.055331945578</v>
       </c>
       <c r="R4">
-        <v>1.191467607974</v>
+        <v>0.497987510202</v>
       </c>
       <c r="S4">
-        <v>6.16913090444815E-05</v>
+        <v>2.133690480691315E-05</v>
       </c>
       <c r="T4">
-        <v>6.169130904448148E-05</v>
+        <v>2.133690480691315E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4022556666666667</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H5">
-        <v>1.206767</v>
+        <v>1.505959</v>
       </c>
       <c r="I5">
-        <v>0.02112849561592738</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J5">
-        <v>0.02112849561592737</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06646400000000001</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N5">
-        <v>0.199392</v>
+        <v>0.439172</v>
       </c>
       <c r="O5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q5">
-        <v>0.02673552062933334</v>
+        <v>0.07348611399422222</v>
       </c>
       <c r="R5">
-        <v>0.240619685664</v>
+        <v>0.6613750259479999</v>
       </c>
       <c r="S5">
-        <v>1.245870495440925E-05</v>
+        <v>2.833744959707529E-05</v>
       </c>
       <c r="T5">
-        <v>1.245870495440925E-05</v>
+        <v>2.833744959707529E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.530229333333334</v>
+        <v>0.5019863333333333</v>
       </c>
       <c r="H6">
-        <v>22.590688</v>
+        <v>1.505959</v>
       </c>
       <c r="I6">
-        <v>0.395525608811629</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="J6">
-        <v>0.395525608811629</v>
+        <v>0.02174419844370831</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.891565</v>
+        <v>0.030104</v>
       </c>
       <c r="N6">
-        <v>8.674695</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q6">
-        <v>21.77414758224</v>
+        <v>0.01511179657866666</v>
       </c>
       <c r="R6">
-        <v>195.96732824016</v>
+        <v>0.136006169208</v>
       </c>
       <c r="S6">
-        <v>0.01014671395862981</v>
+        <v>5.827356361541863E-06</v>
       </c>
       <c r="T6">
-        <v>0.01014671395862981</v>
+        <v>5.827356361541864E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>22.590688</v>
       </c>
       <c r="I7">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J7">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.4279763333333</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N7">
-        <v>328.283929</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O7">
-        <v>0.9708367737425379</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P7">
-        <v>0.970836773742538</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q7">
-        <v>824.0177572725725</v>
+        <v>19.69436099228445</v>
       </c>
       <c r="R7">
-        <v>7416.159815453152</v>
+        <v>177.24924893056</v>
       </c>
       <c r="S7">
-        <v>0.383990805991235</v>
+        <v>0.007594468282937718</v>
       </c>
       <c r="T7">
-        <v>0.383990805991235</v>
+        <v>0.007594468282937718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>22.590688</v>
       </c>
       <c r="I8">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J8">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3291073333333334</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N8">
-        <v>0.987322</v>
+        <v>328.283929</v>
       </c>
       <c r="O8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q8">
-        <v>2.478253695281778</v>
+        <v>824.0177572725725</v>
       </c>
       <c r="R8">
-        <v>22.304283257536</v>
+        <v>7416.159815453152</v>
       </c>
       <c r="S8">
-        <v>0.001154861804255054</v>
+        <v>0.3177547484092363</v>
       </c>
       <c r="T8">
-        <v>0.001154861804255054</v>
+        <v>0.3177547484092363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>22.590688</v>
       </c>
       <c r="I9">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J9">
-        <v>0.395525608811629</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06646400000000001</v>
+        <v>0.110226</v>
       </c>
       <c r="N9">
-        <v>0.199392</v>
+        <v>0.330678</v>
       </c>
       <c r="O9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q9">
-        <v>0.5004891624106668</v>
+        <v>0.8300270584960001</v>
       </c>
       <c r="R9">
-        <v>4.504402461696</v>
+        <v>7.470243526464</v>
       </c>
       <c r="S9">
-        <v>0.0002332270575091245</v>
+        <v>0.000320072033421013</v>
       </c>
       <c r="T9">
-        <v>0.0002332270575091244</v>
+        <v>0.000320072033421013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.768124</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H10">
-        <v>11.304372</v>
+        <v>22.590688</v>
       </c>
       <c r="I10">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J10">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.891565</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N10">
-        <v>8.674695</v>
+        <v>0.439172</v>
       </c>
       <c r="O10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q10">
-        <v>10.89577547406</v>
+        <v>1.102355292259556</v>
       </c>
       <c r="R10">
-        <v>98.06197926654001</v>
+        <v>9.921197630336</v>
       </c>
       <c r="S10">
-        <v>0.005077411948053284</v>
+        <v>0.0004250862623506043</v>
       </c>
       <c r="T10">
-        <v>0.005077411948053285</v>
+        <v>0.0004250862623506043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.768124</v>
+        <v>7.530229333333334</v>
       </c>
       <c r="H11">
-        <v>11.304372</v>
+        <v>22.590688</v>
       </c>
       <c r="I11">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="J11">
-        <v>0.1979208697642645</v>
+        <v>0.3261817903753688</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>109.4279763333333</v>
+        <v>0.030104</v>
       </c>
       <c r="N11">
-        <v>328.283929</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O11">
-        <v>0.9708367737425379</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P11">
-        <v>0.970836773742538</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q11">
-        <v>412.3381838930654</v>
+        <v>0.2266900238506666</v>
       </c>
       <c r="R11">
-        <v>3711.043655037588</v>
+        <v>2.040210214656</v>
       </c>
       <c r="S11">
-        <v>0.1921488586582555</v>
+        <v>8.741538742316853E-05</v>
       </c>
       <c r="T11">
-        <v>0.1921488586582556</v>
+        <v>8.741538742316853E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.768124</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H12">
-        <v>11.304372</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I12">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J12">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3291073333333334</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N12">
-        <v>0.987322</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q12">
-        <v>1.240117241309334</v>
+        <v>8.124488132524446</v>
       </c>
       <c r="R12">
-        <v>11.161055171784</v>
+        <v>73.12039319272</v>
       </c>
       <c r="S12">
-        <v>0.0005778924238115422</v>
+        <v>0.003132935740425045</v>
       </c>
       <c r="T12">
-        <v>0.0005778924238115422</v>
+        <v>0.003132935740425045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.768124</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H13">
-        <v>11.304372</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I13">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J13">
-        <v>0.1979208697642645</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06646400000000001</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N13">
-        <v>0.199392</v>
+        <v>328.283929</v>
       </c>
       <c r="O13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q13">
-        <v>0.2504445935360001</v>
+        <v>339.9309321370304</v>
       </c>
       <c r="R13">
-        <v>2.254001341824</v>
+        <v>3059.378389233274</v>
       </c>
       <c r="S13">
-        <v>0.00011670673414411</v>
+        <v>0.1310829370658692</v>
       </c>
       <c r="T13">
-        <v>0.00011670673414411</v>
+        <v>0.1310829370658692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H14">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I14">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J14">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.891565</v>
+        <v>0.110226</v>
       </c>
       <c r="N14">
-        <v>8.674695</v>
+        <v>0.330678</v>
       </c>
       <c r="O14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q14">
-        <v>8.249922173789999</v>
+        <v>0.342409941052</v>
       </c>
       <c r="R14">
-        <v>74.24929956411</v>
+        <v>3.081689469468</v>
       </c>
       <c r="S14">
-        <v>0.003844449026637532</v>
+        <v>0.0001320388835210617</v>
       </c>
       <c r="T14">
-        <v>0.003844449026637533</v>
+        <v>0.0001320388835210617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H15">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I15">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J15">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.4279763333333</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N15">
-        <v>328.283929</v>
+        <v>0.439172</v>
       </c>
       <c r="O15">
-        <v>0.9708367737425379</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P15">
-        <v>0.970836773742538</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q15">
-        <v>312.2088863246491</v>
+        <v>0.4547531394035556</v>
       </c>
       <c r="R15">
-        <v>2809.879976921842</v>
+        <v>4.092778254632</v>
       </c>
       <c r="S15">
-        <v>0.1454887844823126</v>
+        <v>0.0001753602615042782</v>
       </c>
       <c r="T15">
-        <v>0.1454887844823126</v>
+        <v>0.0001753602615042782</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.853099333333333</v>
+        <v>3.106435333333333</v>
       </c>
       <c r="H16">
-        <v>8.559298</v>
+        <v>9.319305999999999</v>
       </c>
       <c r="I16">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029927</v>
       </c>
       <c r="J16">
-        <v>0.1498591611043523</v>
+        <v>0.1345593333029926</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3291073333333334</v>
+        <v>0.030104</v>
       </c>
       <c r="N16">
-        <v>0.987322</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q16">
-        <v>0.9389759133284444</v>
+        <v>0.09351612927466665</v>
       </c>
       <c r="R16">
-        <v>8.450783219956</v>
+        <v>0.8416451634719998</v>
       </c>
       <c r="S16">
-        <v>0.0004375611017883421</v>
+        <v>3.606135167309021E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004375611017883421</v>
+        <v>3.606135167309021E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.853099333333333</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H17">
-        <v>8.559298</v>
+        <v>16.152184</v>
       </c>
       <c r="I17">
-        <v>0.1498591611043523</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J17">
-        <v>0.1498591611043523</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06646400000000001</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N17">
-        <v>0.199392</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q17">
-        <v>0.1896283940906667</v>
+        <v>14.08133043623111</v>
       </c>
       <c r="R17">
-        <v>1.706655546816</v>
+        <v>126.73197392608</v>
       </c>
       <c r="S17">
-        <v>8.836649361381707E-05</v>
+        <v>0.005429991733238672</v>
       </c>
       <c r="T17">
-        <v>8.836649361381707E-05</v>
+        <v>0.005429991733238672</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H18">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I18">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J18">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.891565</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N18">
-        <v>8.674695</v>
+        <v>328.283929</v>
       </c>
       <c r="O18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q18">
-        <v>12.968176495095</v>
+        <v>589.1669361612151</v>
       </c>
       <c r="R18">
-        <v>116.713588455855</v>
+        <v>5302.502425450935</v>
       </c>
       <c r="S18">
-        <v>0.006043147129584154</v>
+        <v>0.2271924238509111</v>
       </c>
       <c r="T18">
-        <v>0.006043147129584154</v>
+        <v>0.2271924238509112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H19">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I19">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J19">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>109.4279763333333</v>
+        <v>0.110226</v>
       </c>
       <c r="N19">
-        <v>328.283929</v>
+        <v>0.330678</v>
       </c>
       <c r="O19">
-        <v>0.9708367737425379</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P19">
-        <v>0.970836773742538</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q19">
-        <v>490.7658346230313</v>
+        <v>0.5934635445279999</v>
       </c>
       <c r="R19">
-        <v>4416.892511607281</v>
+        <v>5.341171900752</v>
       </c>
       <c r="S19">
-        <v>0.2286960040929345</v>
+        <v>0.0002288492664353715</v>
       </c>
       <c r="T19">
-        <v>0.2286960040929345</v>
+        <v>0.0002288492664353716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H20">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I20">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J20">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3291073333333334</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N20">
-        <v>0.987322</v>
+        <v>0.439172</v>
       </c>
       <c r="O20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q20">
-        <v>1.475990332050889</v>
+        <v>0.7881763279608888</v>
       </c>
       <c r="R20">
-        <v>13.283912988458</v>
+        <v>7.093586951648</v>
       </c>
       <c r="S20">
-        <v>0.0006878088636286679</v>
+        <v>0.0003039337060190124</v>
       </c>
       <c r="T20">
-        <v>0.0006878088636286678</v>
+        <v>0.0003039337060190125</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.484829666666667</v>
+        <v>5.384061333333332</v>
       </c>
       <c r="H21">
-        <v>13.454489</v>
+        <v>16.152184</v>
       </c>
       <c r="I21">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="J21">
-        <v>0.2355658647038269</v>
+        <v>0.2332176999475352</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.030104</v>
+      </c>
+      <c r="N21">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q21">
+        <v>0.1620817823786666</v>
+      </c>
+      <c r="R21">
+        <v>1.458736041408</v>
+      </c>
+      <c r="S21">
+        <v>6.250139093109089E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.250139093109089E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H22">
+        <v>19.689831</v>
+      </c>
+      <c r="I22">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J22">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.615373333333334</v>
+      </c>
+      <c r="N22">
+        <v>7.846120000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="P22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="Q22">
+        <v>17.16541964508</v>
+      </c>
+      <c r="R22">
+        <v>154.48877680572</v>
+      </c>
+      <c r="S22">
+        <v>0.006619267063752278</v>
+      </c>
+      <c r="T22">
+        <v>0.006619267063752278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H23">
+        <v>19.689831</v>
+      </c>
+      <c r="I23">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J23">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N23">
+        <v>328.283929</v>
+      </c>
+      <c r="O23">
+        <v>0.9741645848579265</v>
+      </c>
+      <c r="P23">
+        <v>0.9741645848579266</v>
+      </c>
+      <c r="Q23">
+        <v>718.2061202251109</v>
+      </c>
+      <c r="R23">
+        <v>6463.855082025998</v>
+      </c>
+      <c r="S23">
+        <v>0.2769520474819263</v>
+      </c>
+      <c r="T23">
+        <v>0.2769520474819263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H24">
+        <v>19.689831</v>
+      </c>
+      <c r="I24">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J24">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M21">
-        <v>0.06646400000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.199392</v>
-      </c>
-      <c r="O21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="P21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="Q21">
-        <v>0.2980797189653334</v>
-      </c>
-      <c r="R21">
-        <v>2.682717470688</v>
-      </c>
-      <c r="S21">
-        <v>0.0001389046176795892</v>
-      </c>
-      <c r="T21">
-        <v>0.0001389046176795891</v>
+      <c r="M24">
+        <v>0.110226</v>
+      </c>
+      <c r="N24">
+        <v>0.330678</v>
+      </c>
+      <c r="O24">
+        <v>0.0009812688594684432</v>
+      </c>
+      <c r="P24">
+        <v>0.0009812688594684434</v>
+      </c>
+      <c r="Q24">
+        <v>0.7234437706019999</v>
+      </c>
+      <c r="R24">
+        <v>6.510993935418</v>
+      </c>
+      <c r="S24">
+        <v>0.0002789717712840838</v>
+      </c>
+      <c r="T24">
+        <v>0.0002789717712840838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H25">
+        <v>19.689831</v>
+      </c>
+      <c r="I25">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J25">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1463906666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.439172</v>
+      </c>
+      <c r="O25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="P25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="Q25">
+        <v>0.9608024955479999</v>
+      </c>
+      <c r="R25">
+        <v>8.647222459931999</v>
+      </c>
+      <c r="S25">
+        <v>0.0003705011846520593</v>
+      </c>
+      <c r="T25">
+        <v>0.0003705011846520593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.563276999999999</v>
+      </c>
+      <c r="H26">
+        <v>19.689831</v>
+      </c>
+      <c r="I26">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="J26">
+        <v>0.2842969779303949</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.030104</v>
+      </c>
+      <c r="N26">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q26">
+        <v>0.197580890808</v>
+      </c>
+      <c r="R26">
+        <v>1.778228017272</v>
+      </c>
+      <c r="S26">
+        <v>7.619042878028829E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.619042878028829E-05</v>
       </c>
     </row>
   </sheetData>
